--- a/Data_Clean/Change_Murder_Rates_Large_Cities_2020_2023.xlsx
+++ b/Data_Clean/Change_Murder_Rates_Large_Cities_2020_2023.xlsx
@@ -1,21 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrubval/Desktop/2002_2023_US_Crime_Data/Data_Clean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04614CE-72AD-8F4C-9421-DF4D72C13F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8440" yWindow="7720" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Population_2020</t>
+  </si>
+  <si>
+    <t>Murders_2020</t>
+  </si>
+  <si>
+    <t>Murder_Rate_2020</t>
+  </si>
+  <si>
+    <t>Population_2023</t>
+  </si>
+  <si>
+    <t>Murders_2023</t>
+  </si>
+  <si>
+    <t>Murder_Rate_2023</t>
+  </si>
+  <si>
+    <t>Change_Murder_Rate_2020_2023</t>
+  </si>
+  <si>
+    <t>Los Angeles, California</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>San Francisco, California</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>New Orleans, Louisiana</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Detroit, Michigan</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Memphis, Tennessee</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>Houston, Texas</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>Seattle, Washington</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pennsylvania</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>Baltimore, Maryland</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +209,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +295,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +347,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,469 +540,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Population_2020</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Murders_2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Murder_Rate_2020</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Population_2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Murders_2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Murder_Rate_2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Change_Murder_Rate_2020_2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Los Angeles, California</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4000587</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>8.773712457696833</v>
+        <v>8.7737124576968331</v>
       </c>
       <c r="E2">
         <v>3786018</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>8.557804004101406</v>
+        <v>8.5578040041014063</v>
       </c>
       <c r="H2">
-        <v>-0.02460856275338939</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>San Francisco, California</t>
-        </is>
+        <v>-2.460856275338939E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>881514</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>5.445177274552645</v>
+        <v>5.4451772745526448</v>
       </c>
       <c r="E3">
         <v>782846</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>6.642430311964294</v>
+        <v>6.6424303119642936</v>
       </c>
       <c r="H3">
         <v>0.2198740237543525</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Washington, District of Columbia</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>712816</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>27.77715427263137</v>
+        <v>27.777154272631371</v>
       </c>
       <c r="E4">
         <v>678972</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>38.88231031618388</v>
+        <v>38.882310316183883</v>
       </c>
       <c r="H4">
-        <v>0.3997945914313598</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chicago, Illinois</t>
-        </is>
+        <v>0.39979459143135981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2693598</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>28.62342487631785</v>
+        <v>28.623424876317848</v>
       </c>
       <c r="E5">
         <v>2628298</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>18.98567057464565</v>
+        <v>18.985670574645649</v>
       </c>
       <c r="H5">
-        <v>-0.3367086343900861</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>New Orleans, Louisiana</t>
-        </is>
+        <v>-0.33670863439008608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
         <v>393779</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>51.04385962684653</v>
+        <v>51.043859626846533</v>
       </c>
       <c r="E6">
         <v>364197</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>52.99329758345072</v>
+        <v>52.993297583450719</v>
       </c>
       <c r="H6">
-        <v>0.03819142930913644</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Detroit, Michigan</t>
-        </is>
+        <v>3.8191429309136438E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <v>659616</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>49.72590113035463</v>
+        <v>49.725901130354629</v>
       </c>
       <c r="E7">
         <v>615501</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>40.61731824968603</v>
+        <v>40.617318249686029</v>
       </c>
       <c r="H7">
-        <v>-0.1831758233358262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Memphis, Tennessee</t>
-        </is>
+        <v>-0.18317582333582619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <v>650937</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>44.39753770334149</v>
+        <v>44.397537703341492</v>
       </c>
       <c r="E8">
         <v>616061</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>56.97487748778124</v>
+        <v>56.974877487781242</v>
       </c>
       <c r="H8">
-        <v>0.2832891289710677</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Houston, Texas</t>
-        </is>
+        <v>0.28328912897106773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2346155</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>17.04917194303019</v>
+        <v>17.049171943030188</v>
       </c>
       <c r="E9">
         <v>2304406</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
       <c r="G9">
         <v>14.88452989620753</v>
       </c>
       <c r="H9">
-        <v>-0.1269646440340808</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Seattle, Washington</t>
-        </is>
+        <v>-0.12696464403408081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
       </c>
       <c r="B10">
         <v>771517</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>6.739968140689059</v>
+        <v>6.7399681406890588</v>
       </c>
       <c r="E10">
         <v>753786</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>9.021128012459769</v>
+        <v>9.0211280124597693</v>
       </c>
       <c r="H10">
-        <v>0.3384526193824852</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Atlanta, Georgia</t>
-        </is>
+        <v>0.33845261938248522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
       </c>
       <c r="B11">
         <v>498715</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.0003148090592823557</v>
+        <v>3.148090592823557E-4</v>
       </c>
       <c r="E11">
         <v>500212</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
+      <c r="F11" t="s">
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>0.0002638881114407491</v>
+        <v>2.6388811144074909E-4</v>
       </c>
       <c r="H11">
-        <v>-0.1617518503364763</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Philadelphia, Pennsylvania</t>
-        </is>
+        <v>-0.16175185033647629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1603797</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>0.0003080190323338926</v>
+        <v>3.080190323338926E-4</v>
       </c>
       <c r="E12">
         <v>1550843</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>403</t>
-        </is>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>0.0002598586704134461</v>
+        <v>2.5985867041344608E-4</v>
       </c>
       <c r="H12">
         <v>-0.1563551497306202</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Baltimore, Maryland</t>
-        </is>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13">
         <v>585708</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
+      <c r="C13" t="s">
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>0.0005668353514037711</v>
+        <v>5.6683535140377112E-4</v>
       </c>
       <c r="E13">
         <v>565192</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+      <c r="F13" t="s">
+        <v>41</v>
       </c>
       <c r="G13">
-        <v>0.0004122492887372787</v>
+        <v>4.1224928873727872E-4</v>
       </c>
       <c r="H13">
-        <v>-0.2727177517839336</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>New York, New York</t>
-        </is>
+        <v>-0.27271775178393359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
       </c>
       <c r="B14">
         <v>8300377</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>5.638298115856665E-05</v>
+        <v>5.6382981158566648E-5</v>
       </c>
       <c r="E14">
         <v>8184044</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>391</t>
-        </is>
+      <c r="F14" t="s">
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>4.777589172296728E-05</v>
+        <v>4.7775891722967279E-5</v>
       </c>
       <c r="H14">
-        <v>-0.1526540324534018</v>
+        <v>-0.15265403245340181</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Clean/Change_Murder_Rates_Large_Cities_2020_2023.xlsx
+++ b/Data_Clean/Change_Murder_Rates_Large_Cities_2020_2023.xlsx
@@ -1,167 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrubval/Desktop/2002_2023_US_Crime_Data/Data_Clean/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04614CE-72AD-8F4C-9421-DF4D72C13F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="7720" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Population_2020</t>
-  </si>
-  <si>
-    <t>Murders_2020</t>
-  </si>
-  <si>
-    <t>Murder_Rate_2020</t>
-  </si>
-  <si>
-    <t>Population_2023</t>
-  </si>
-  <si>
-    <t>Murders_2023</t>
-  </si>
-  <si>
-    <t>Murder_Rate_2023</t>
-  </si>
-  <si>
-    <t>Change_Murder_Rate_2020_2023</t>
-  </si>
-  <si>
-    <t>Los Angeles, California</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>San Francisco, California</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Washington, District of Columbia</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>Chicago, Illinois</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>New Orleans, Louisiana</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Detroit, Michigan</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Memphis, Tennessee</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>Houston, Texas</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>Seattle, Washington</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Atlanta, Georgia</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Philadelphia, Pennsylvania</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>Baltimore, Maryland</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>New York, New York</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,377 +350,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Population_2020</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Murders_2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Murder_Rate_2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Population_2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Murders_2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Murder_Rate_2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Change_Murder_Rate_2020_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Los Angeles, California</t>
+        </is>
       </c>
       <c r="B2">
         <v>4000587</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
       </c>
       <c r="D2">
-        <v>8.7737124576968331</v>
+        <v>8.773712457696833E-05</v>
       </c>
       <c r="E2">
         <v>3786018</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
       </c>
       <c r="G2">
-        <v>8.5578040041014063</v>
+        <v>8.557804004101407E-05</v>
       </c>
       <c r="H2">
-        <v>-2.460856275338939E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
+        <v>-0.02460856275338934</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>San Francisco, California</t>
+        </is>
       </c>
       <c r="B3">
         <v>881514</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="D3">
-        <v>5.4451772745526448</v>
+        <v>5.445177274552645E-05</v>
       </c>
       <c r="E3">
         <v>782846</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="G3">
-        <v>6.6424303119642936</v>
+        <v>6.642430311964294E-05</v>
       </c>
       <c r="H3">
-        <v>0.2198740237543525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
+        <v>0.2198740237543526</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Washington, District of Columbia</t>
+        </is>
       </c>
       <c r="B4">
         <v>712816</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="D4">
-        <v>27.777154272631371</v>
+        <v>0.0002777715427263137</v>
       </c>
       <c r="E4">
         <v>678972</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
       </c>
       <c r="G4">
-        <v>38.882310316183883</v>
+        <v>0.0003888231031618388</v>
       </c>
       <c r="H4">
-        <v>0.39979459143135981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
+        <v>0.3997945914313599</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
       </c>
       <c r="B5">
         <v>2693598</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
       </c>
       <c r="D5">
-        <v>28.623424876317848</v>
+        <v>0.0002862342487631785</v>
       </c>
       <c r="E5">
         <v>2628298</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
       </c>
       <c r="G5">
-        <v>18.985670574645649</v>
+        <v>0.0001898567057464564</v>
       </c>
       <c r="H5">
-        <v>-0.33670863439008608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
+        <v>-0.3367086343900861</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>New Orleans, Louisiana</t>
+        </is>
       </c>
       <c r="B6">
         <v>393779</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="D6">
-        <v>51.043859626846533</v>
+        <v>0.0005104385962684653</v>
       </c>
       <c r="E6">
         <v>364197</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
       </c>
       <c r="G6">
-        <v>52.993297583450719</v>
+        <v>0.0005299329758345072</v>
       </c>
       <c r="H6">
-        <v>3.8191429309136438E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
+        <v>0.03819142930913639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Detroit, Michigan</t>
+        </is>
       </c>
       <c r="B7">
         <v>659616</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
       </c>
       <c r="D7">
-        <v>49.725901130354629</v>
+        <v>0.0004972590113035463</v>
       </c>
       <c r="E7">
         <v>615501</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="G7">
-        <v>40.617318249686029</v>
+        <v>0.0004061731824968603</v>
       </c>
       <c r="H7">
-        <v>-0.18317582333582619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
+        <v>-0.1831758233358262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Memphis, Tennessee</t>
+        </is>
       </c>
       <c r="B8">
         <v>650937</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
       </c>
       <c r="D8">
-        <v>44.397537703341492</v>
+        <v>0.0004439753770334149</v>
       </c>
       <c r="E8">
         <v>616061</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
       </c>
       <c r="G8">
-        <v>56.974877487781242</v>
+        <v>0.0005697487748778124</v>
       </c>
       <c r="H8">
-        <v>0.28328912897106773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
+        <v>0.2832891289710678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Houston, Texas</t>
+        </is>
       </c>
       <c r="B9">
         <v>2346155</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="D9">
-        <v>17.049171943030188</v>
+        <v>0.0001704917194303019</v>
       </c>
       <c r="E9">
         <v>2304406</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
       </c>
       <c r="G9">
-        <v>14.88452989620753</v>
+        <v>0.0001488452989620753</v>
       </c>
       <c r="H9">
-        <v>-0.12696464403408081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
+        <v>-0.1269646440340807</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Seattle, Washington</t>
+        </is>
       </c>
       <c r="B10">
         <v>771517</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="D10">
-        <v>6.7399681406890588</v>
+        <v>6.739968140689058E-05</v>
       </c>
       <c r="E10">
         <v>753786</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="G10">
-        <v>9.0211280124597693</v>
+        <v>9.021128012459769E-05</v>
       </c>
       <c r="H10">
-        <v>0.33845261938248522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
+        <v>0.3384526193824853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Atlanta, Georgia</t>
+        </is>
       </c>
       <c r="B11">
         <v>498715</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
       </c>
       <c r="D11">
-        <v>3.148090592823557E-4</v>
+        <v>0.0003148090592823557</v>
       </c>
       <c r="E11">
         <v>500212</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="G11">
-        <v>2.6388811144074909E-4</v>
+        <v>0.0002638881114407491</v>
       </c>
       <c r="H11">
-        <v>-0.16175185033647629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
+        <v>-0.1617518503364763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Philadelphia, Pennsylvania</t>
+        </is>
       </c>
       <c r="B12">
         <v>1603797</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
       </c>
       <c r="D12">
-        <v>3.080190323338926E-4</v>
+        <v>0.0003080190323338926</v>
       </c>
       <c r="E12">
         <v>1550843</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
       </c>
       <c r="G12">
-        <v>2.5985867041344608E-4</v>
+        <v>0.0002598586704134461</v>
       </c>
       <c r="H12">
         <v>-0.1563551497306202</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baltimore, Maryland</t>
+        </is>
       </c>
       <c r="B13">
         <v>585708</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
       </c>
       <c r="D13">
-        <v>5.6683535140377112E-4</v>
+        <v>0.0005668353514037711</v>
       </c>
       <c r="E13">
         <v>565192</v>
       </c>
-      <c r="F13" t="s">
-        <v>41</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="G13">
-        <v>4.1224928873727872E-4</v>
+        <v>0.0004122492887372787</v>
       </c>
       <c r="H13">
-        <v>-0.27271775178393359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
+        <v>-0.2727177517839336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>New York, New York</t>
+        </is>
       </c>
       <c r="B14">
         <v>8300377</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
       </c>
       <c r="D14">
-        <v>5.6382981158566648E-5</v>
+        <v>5.638298115856665E-05</v>
       </c>
       <c r="E14">
         <v>8184044</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
       </c>
       <c r="G14">
-        <v>4.7775891722967279E-5</v>
+        <v>4.777589172296728E-05</v>
       </c>
       <c r="H14">
-        <v>-0.15265403245340181</v>
+        <v>-0.1526540324534018</v>
       </c>
     </row>
   </sheetData>
